--- a/rp/Excel/Shoulder_肩部.xlsx
+++ b/rp/Excel/Shoulder_肩部.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t xml:space="preserve">Int</t>
   </si>
@@ -51,10 +51,19 @@
 2-FeMale</t>
   </si>
   <si>
-    <t xml:space="preserve">光束拖尾</t>
+    <t xml:space="preserve">宠物</t>
   </si>
   <si>
-    <t xml:space="preserve">彩虹拖尾</t>
+    <t xml:space="preserve">0|-35|-25|0|0|0|0.1|0.1|0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僵尸猫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0|-35|-35|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僵尸狗</t>
   </si>
 </sst>
 </file>
@@ -64,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -100,6 +109,13 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -146,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,6 +176,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,10 +203,10 @@
   <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -310,9 +330,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>88442</v>
+        <v>152395</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
@@ -338,12 +360,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>152404</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>88824</v>
-      </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
@@ -365,11 +389,21 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>217695</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -388,11 +422,21 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>217700</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/rp/Excel/Shoulder_肩部.xlsx
+++ b/rp/Excel/Shoulder_肩部.xlsx
@@ -1,214 +1,1251 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9015" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="12">
   <si>
-    <t xml:space="preserve">Int</t>
+    <t>Int</t>
   </si>
   <si>
-    <t xml:space="preserve">String</t>
+    <t>String</t>
   </si>
   <si>
-    <t xml:space="preserve">String[]</t>
+    <t>String[]</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Describe</t>
+    <t>Describe</t>
   </si>
   <si>
-    <t xml:space="preserve">AssetId</t>
+    <t>AssetId</t>
   </si>
   <si>
-    <t xml:space="preserve">Transform</t>
+    <t>Transform</t>
   </si>
   <si>
-    <t xml:space="preserve">SexType</t>
+    <t>SexType</t>
   </si>
   <si>
-    <t xml:space="preserve">0-Common
+    <t>0-Common
 1-Male
 2-FeMale</t>
   </si>
   <si>
-    <t xml:space="preserve">宠物</t>
+    <t>0|-35|-25|0|0|0|0.1|0.1|0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">0|-35|-25|0|0|0|0.1|0.1|0.1</t>
+    <t>0|-35|-50|0|0|-90|0.5|0.5|0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">僵尸猫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0|-35|-35|0|0|0|1|1|1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">僵尸狗</t>
+    <t>0|-35|-50|0|0|-90|1|1|1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.05" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -241,7 +1278,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -274,7 +1311,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="38.25" spans="1:21">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -299,7 +1336,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:21">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -322,20 +1359,18 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:21">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1">
+        <v>152404</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>152395</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
@@ -355,20 +1390,18 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1">
+        <v>152387</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>152404</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
@@ -388,20 +1421,18 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>217695</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="n">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1">
+        <v>152384</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1"/>
@@ -421,20 +1452,18 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>217700</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="n">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1">
+        <v>152395</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
@@ -454,12 +1483,20 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1">
+        <v>152380</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -477,12 +1514,20 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="1">
+        <v>152393</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -500,12 +1545,20 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1">
+        <v>152400</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -523,12 +1576,20 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="1">
+        <v>152407</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -546,12 +1607,20 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1">
+        <v>152382</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -569,12 +1638,20 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="1">
+        <v>152397</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -592,12 +1669,20 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="1">
+        <v>152381</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -615,12 +1700,20 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1">
+        <v>152396</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -638,12 +1731,20 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="1">
+        <v>152392</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -661,12 +1762,20 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1">
+        <v>152399</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -684,12 +1793,20 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="1">
+        <v>152408</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -707,12 +1824,20 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1">
+        <v>152391</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -730,12 +1855,20 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1">
+        <v>152405</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -753,12 +1886,20 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1">
+        <v>152402</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -776,12 +1917,20 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1">
+        <v>152409</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -799,12 +1948,20 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="1">
+        <v>152383</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -822,12 +1979,20 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="1">
+        <v>152406</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -845,12 +2010,20 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="1">
+        <v>152403</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -868,12 +2041,20 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="1">
+        <v>152385</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -891,12 +2072,20 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="1">
+        <v>152386</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -914,12 +2103,20 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="1">
+        <v>152388</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -937,12 +2134,20 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="1">
+        <v>152389</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -960,12 +2165,20 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="1">
+        <v>152390</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -983,12 +2196,20 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="1">
+        <v>152394</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1006,12 +2227,20 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="1">
+        <v>152398</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1029,12 +2258,20 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="1">
+        <v>152401</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1052,12 +2289,20 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="1">
+        <v>87027</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1075,12 +2320,20 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="1">
+        <v>152259</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1098,12 +2351,20 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="1">
+        <v>177575</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1121,12 +2382,20 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="1">
+        <v>177646</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1144,12 +2413,20 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="1">
+        <v>178141</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1167,12 +2444,20 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="1">
+        <v>179400</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1190,12 +2475,20 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="1">
+        <v>179470</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1213,12 +2506,20 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="1">
+        <v>179487</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1236,12 +2537,20 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="1">
+        <v>180526</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1259,12 +2568,20 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="1">
+        <v>180527</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1282,12 +2599,20 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="1">
+        <v>180962</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1305,12 +2630,20 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="1">
+        <v>180963</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1328,12 +2661,20 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="C47" s="1">
+        <v>180965</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1351,12 +2692,20 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="C48" s="1">
+        <v>180966</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1374,12 +2723,20 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="1">
+        <v>180967</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1397,12 +2754,20 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="C50" s="1">
+        <v>180968</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1420,12 +2785,20 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="C51" s="1">
+        <v>181639</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1443,12 +2816,20 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="C52" s="1">
+        <v>184402</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1466,12 +2847,20 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="C53" s="1">
+        <v>184489</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1489,12 +2878,20 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="C54" s="1">
+        <v>184541</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -1512,12 +2909,20 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="C55" s="1">
+        <v>184555</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -1535,12 +2940,20 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="C56" s="1">
+        <v>184556</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -1558,12 +2971,20 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="C57" s="1">
+        <v>184561</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -1581,12 +3002,20 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="1">
+        <v>185376</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -1604,12 +3033,20 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="C59" s="1">
+        <v>185448</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -1627,12 +3064,20 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="C60" s="1">
+        <v>185537</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -1650,12 +3095,20 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="C61" s="1">
+        <v>185598</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -1673,12 +3126,20 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="C62" s="1">
+        <v>185627</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -1696,12 +3157,20 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="C63" s="1">
+        <v>185708</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -1719,12 +3188,20 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="C64" s="1">
+        <v>186357</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -1742,12 +3219,20 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
+    <row r="65" spans="1:21">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="C65" s="1">
+        <v>186532</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -1765,12 +3250,20 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
+    <row r="66" spans="1:21">
+      <c r="A66" s="1">
+        <v>62</v>
+      </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="C66" s="1">
+        <v>186533</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -1788,12 +3281,20 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
+    <row r="67" spans="1:21">
+      <c r="A67" s="1">
+        <v>63</v>
+      </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="C67" s="1">
+        <v>186534</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -1811,12 +3312,20 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:21">
+      <c r="A68" s="1">
+        <v>64</v>
+      </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="C68" s="1">
+        <v>186655</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -1834,12 +3343,20 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:21">
+      <c r="A69" s="1">
+        <v>65</v>
+      </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="C69" s="1">
+        <v>186656</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -1857,12 +3374,20 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
+    <row r="70" spans="1:21">
+      <c r="A70" s="1">
+        <v>66</v>
+      </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="C70" s="1">
+        <v>186657</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -1880,12 +3405,20 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
+    <row r="71" spans="1:21">
+      <c r="A71" s="1">
+        <v>67</v>
+      </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="C71" s="1">
+        <v>186685</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -1903,12 +3436,20 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
+    <row r="72" spans="1:21">
+      <c r="A72" s="1">
+        <v>68</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="C72" s="1">
+        <v>186807</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -1926,12 +3467,20 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1"/>
+    <row r="73" spans="1:21">
+      <c r="A73" s="1">
+        <v>69</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="C73" s="1">
+        <v>186897</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -1949,12 +3498,20 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:21">
+      <c r="A74" s="1">
+        <v>70</v>
+      </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="C74" s="1">
+        <v>191800</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -1972,12 +3529,20 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:21">
+      <c r="A75" s="1">
+        <v>71</v>
+      </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="C75" s="1">
+        <v>191806</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -1995,12 +3560,20 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:21">
+      <c r="A76" s="1">
+        <v>72</v>
+      </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="C76" s="1">
+        <v>191852</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -2018,12 +3591,20 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
+    <row r="77" spans="1:21">
+      <c r="A77" s="1">
+        <v>73</v>
+      </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="C77" s="1">
+        <v>191950</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -2041,12 +3622,20 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1"/>
+    <row r="78" spans="1:21">
+      <c r="A78" s="1">
+        <v>74</v>
+      </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="C78" s="1">
+        <v>192290</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -2064,12 +3653,20 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1"/>
+    <row r="79" spans="1:21">
+      <c r="A79" s="1">
+        <v>75</v>
+      </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="C79" s="1">
+        <v>192359</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -2087,12 +3684,20 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1"/>
+    <row r="80" spans="1:21">
+      <c r="A80" s="1">
+        <v>76</v>
+      </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="C80" s="1">
+        <v>192385</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -2110,12 +3715,20 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1"/>
+    <row r="81" spans="1:21">
+      <c r="A81" s="1">
+        <v>77</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="C81" s="1">
+        <v>192395</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -2133,12 +3746,20 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1"/>
+    <row r="82" spans="1:21">
+      <c r="A82" s="1">
+        <v>78</v>
+      </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="C82" s="1">
+        <v>192420</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2156,12 +3777,20 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1"/>
+    <row r="83" spans="1:21">
+      <c r="A83" s="1">
+        <v>79</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="C83" s="1">
+        <v>192533</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -2179,12 +3808,20 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1"/>
+    <row r="84" spans="1:21">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="C84" s="1">
+        <v>192579</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -2202,12 +3839,20 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1"/>
+    <row r="85" spans="1:21">
+      <c r="A85" s="1">
+        <v>81</v>
+      </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="C85" s="1">
+        <v>194960</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -2225,12 +3870,20 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1"/>
+    <row r="86" spans="1:21">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="C86" s="1">
+        <v>194965</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -2248,12 +3901,20 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1"/>
+    <row r="87" spans="1:21">
+      <c r="A87" s="1">
+        <v>83</v>
+      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="C87" s="1">
+        <v>195014</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -2271,12 +3932,20 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1"/>
+    <row r="88" spans="1:21">
+      <c r="A88" s="1">
+        <v>84</v>
+      </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="C88" s="1">
+        <v>195088</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -2294,12 +3963,20 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1"/>
+    <row r="89" spans="1:21">
+      <c r="A89" s="1">
+        <v>85</v>
+      </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="C89" s="1">
+        <v>195089</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -2317,12 +3994,20 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1"/>
+    <row r="90" spans="1:21">
+      <c r="A90" s="1">
+        <v>86</v>
+      </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
+      <c r="C90" s="1">
+        <v>195090</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -2340,12 +4025,20 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1"/>
+    <row r="91" spans="1:21">
+      <c r="A91" s="1">
+        <v>87</v>
+      </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="C91" s="1">
+        <v>195162</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -2363,12 +4056,20 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1"/>
+    <row r="92" spans="1:21">
+      <c r="A92" s="1">
+        <v>88</v>
+      </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="C92" s="1">
+        <v>195260</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -2386,12 +4087,20 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1"/>
+    <row r="93" spans="1:21">
+      <c r="A93" s="1">
+        <v>89</v>
+      </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="C93" s="1">
+        <v>195261</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -2409,12 +4118,20 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1"/>
+    <row r="94" spans="1:21">
+      <c r="A94" s="1">
+        <v>90</v>
+      </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="C94" s="1">
+        <v>195262</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -2432,12 +4149,20 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:21">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="C95" s="1">
+        <v>195771</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -2455,12 +4180,20 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:21">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="C96" s="1">
+        <v>195772</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -2478,12 +4211,20 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:21">
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="C97" s="1">
+        <v>195773</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -2501,12 +4242,20 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1"/>
+    <row r="98" spans="1:21">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="C98" s="1">
+        <v>195774</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -2524,12 +4273,20 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1"/>
+    <row r="99" spans="1:21">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="C99" s="1">
+        <v>196299</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -2547,12 +4304,20 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1"/>
+    <row r="100" spans="1:21">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="C100" s="1">
+        <v>196300</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -2570,12 +4335,20 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1"/>
+    <row r="101" spans="1:21">
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="C101" s="1">
+        <v>196301</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -2593,12 +4366,20 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1"/>
+    <row r="102" spans="1:21">
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="C102" s="1">
+        <v>196302</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -2616,12 +4397,20 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:21">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="C103" s="1">
+        <v>196536</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -2639,12 +4428,20 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1"/>
+    <row r="104" spans="1:21">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="C104" s="1">
+        <v>197005</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -2662,12 +4459,20 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1"/>
+    <row r="105" spans="1:21">
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="C105" s="1">
+        <v>197006</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -2685,12 +4490,20 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1"/>
+    <row r="106" spans="1:21">
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="C106" s="1">
+        <v>197007</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -2708,12 +4521,20 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1"/>
+    <row r="107" spans="1:21">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="C107" s="1">
+        <v>197008</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -2731,12 +4552,20 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1"/>
+    <row r="108" spans="1:21">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="C108" s="1">
+        <v>198126</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -2754,12 +4583,20 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1"/>
+    <row r="109" spans="1:21">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="C109" s="1">
+        <v>198127</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -2777,12 +4614,20 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1"/>
+    <row r="110" spans="1:21">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="C110" s="1">
+        <v>198128</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -2800,12 +4645,20 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:21">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="C111" s="1">
+        <v>198630</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -2823,12 +4676,20 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1"/>
+    <row r="112" spans="1:21">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="C112" s="1">
+        <v>198631</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -2846,12 +4707,20 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1"/>
+    <row r="113" spans="1:21">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="C113" s="1">
+        <v>198632</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -2869,12 +4738,20 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1"/>
+    <row r="114" spans="1:21">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="C114" s="1">
+        <v>198633</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -2892,12 +4769,20 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1"/>
+    <row r="115" spans="1:21">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="C115" s="1">
+        <v>198651</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -2915,12 +4800,20 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1"/>
+    <row r="116" spans="1:21">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+      <c r="C116" s="1">
+        <v>198652</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -2938,12 +4831,20 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1"/>
+    <row r="117" spans="1:21">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="C117" s="1">
+        <v>198653</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -2961,12 +4862,20 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1"/>
+    <row r="118" spans="1:21">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="C118" s="1">
+        <v>198654</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -2984,12 +4893,20 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1"/>
+    <row r="119" spans="1:21">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="C119" s="1">
+        <v>199401</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -3007,12 +4924,20 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1"/>
+    <row r="120" spans="1:21">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="C120" s="1">
+        <v>199402</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -3030,12 +4955,20 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1"/>
+    <row r="121" spans="1:21">
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="C121" s="1">
+        <v>199403</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -3053,12 +4986,20 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1"/>
+    <row r="122" spans="1:21">
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="C122" s="1">
+        <v>199404</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -3076,12 +5017,20 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1"/>
+    <row r="123" spans="1:21">
+      <c r="A123" s="1">
+        <v>119</v>
+      </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="C123" s="1">
+        <v>200181</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -3099,12 +5048,20 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1"/>
+    <row r="124" spans="1:21">
+      <c r="A124" s="1">
+        <v>120</v>
+      </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="C124" s="1">
+        <v>200182</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -3122,12 +5079,20 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1"/>
+    <row r="125" spans="1:21">
+      <c r="A125" s="1">
+        <v>121</v>
+      </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="C125" s="1">
+        <v>200183</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -3145,12 +5110,20 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1"/>
+    <row r="126" spans="1:21">
+      <c r="A126" s="1">
+        <v>122</v>
+      </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="C126" s="1">
+        <v>203716</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -3168,12 +5141,20 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1"/>
+    <row r="127" spans="1:21">
+      <c r="A127" s="1">
+        <v>123</v>
+      </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
+      <c r="C127" s="1">
+        <v>203717</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -3191,12 +5172,20 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1"/>
+    <row r="128" spans="1:21">
+      <c r="A128" s="1">
+        <v>124</v>
+      </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="C128" s="1">
+        <v>203718</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -3214,12 +5203,20 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1"/>
+    <row r="129" spans="1:21">
+      <c r="A129" s="1">
+        <v>125</v>
+      </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="C129" s="1">
+        <v>203719</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -3237,12 +5234,20 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1"/>
+    <row r="130" spans="1:21">
+      <c r="A130" s="1">
+        <v>126</v>
+      </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
+      <c r="C130" s="1">
+        <v>209370</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -3260,12 +5265,20 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1"/>
+    <row r="131" spans="1:21">
+      <c r="A131" s="1">
+        <v>127</v>
+      </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
+      <c r="C131" s="1">
+        <v>209371</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -3283,12 +5296,20 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1"/>
+    <row r="132" spans="1:21">
+      <c r="A132" s="1">
+        <v>128</v>
+      </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="C132" s="1">
+        <v>209372</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -3306,12 +5327,20 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1"/>
+    <row r="133" spans="1:21">
+      <c r="A133" s="1">
+        <v>129</v>
+      </c>
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="C133" s="1">
+        <v>209373</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -3329,12 +5358,20 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1"/>
+    <row r="134" spans="1:21">
+      <c r="A134" s="1">
+        <v>130</v>
+      </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="C134" s="1">
+        <v>217695</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -3352,12 +5389,20 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1"/>
+    <row r="135" spans="1:21">
+      <c r="A135" s="1">
+        <v>131</v>
+      </c>
       <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="C135" s="1">
+        <v>217700</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -3375,12 +5420,20 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1"/>
+    <row r="136" spans="1:21">
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="C136" s="1">
+        <v>217949</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -3398,12 +5451,20 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1"/>
+    <row r="137" spans="1:21">
+      <c r="A137" s="1">
+        <v>133</v>
+      </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="C137" s="1">
+        <v>218295</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -3421,12 +5482,20 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1"/>
+    <row r="138" spans="1:21">
+      <c r="A138" s="1">
+        <v>134</v>
+      </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="C138" s="1">
+        <v>218316</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -3444,7 +5513,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:21">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3467,7 +5536,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:21">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3490,7 +5559,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:21">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3513,7 +5582,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:21">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3536,7 +5605,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:21">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3559,7 +5628,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:21">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3582,7 +5651,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:21">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3605,7 +5674,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:21">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3628,7 +5697,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:21">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3651,7 +5720,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:21">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3674,7 +5743,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:21">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3697,7 +5766,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:21">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3720,7 +5789,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:21">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3743,7 +5812,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:21">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3766,7 +5835,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:21">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3789,7 +5858,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:21">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3812,7 +5881,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:21">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3835,7 +5904,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:21">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3858,7 +5927,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:21">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3881,7 +5950,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:21">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3904,7 +5973,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:21">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3927,7 +5996,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:21">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3950,7 +6019,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:21">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3973,7 +6042,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:21">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3996,7 +6065,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:21">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4019,7 +6088,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:21">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4042,7 +6111,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:21">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4065,7 +6134,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:21">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4088,7 +6157,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:21">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4111,7 +6180,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:21">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4134,7 +6203,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:21">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4157,7 +6226,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:21">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4180,7 +6249,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:21">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4203,7 +6272,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:21">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4226,7 +6295,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:21">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4249,7 +6318,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:21">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4272,7 +6341,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:21">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4295,7 +6364,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:21">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4318,7 +6387,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:21">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4341,7 +6410,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:21">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4364,7 +6433,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:21">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4387,7 +6456,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:21">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4410,7 +6479,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:21">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4433,7 +6502,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:21">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4456,7 +6525,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:21">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4479,7 +6548,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:21">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4502,7 +6571,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:21">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4525,7 +6594,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:21">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4548,7 +6617,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:21">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4571,7 +6640,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:21">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4594,7 +6663,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:21">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4617,7 +6686,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:21">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4640,7 +6709,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:21">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4663,7 +6732,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:21">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4686,7 +6755,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:21">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4709,7 +6778,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:21">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4732,7 +6801,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:21">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4755,7 +6824,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:21">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4778,7 +6847,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:21">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4801,7 +6870,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:21">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4824,7 +6893,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:21">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4847,7 +6916,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:21">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4871,13 +6940,9 @@
       <c r="U200" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>